--- a/Wykresy czasowe i złożoności.xlsx
+++ b/Wykresy czasowe i złożoności.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kajom\Desktop\studia\AlgorytmyIstrukturyDanych\Projekt\projekt git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{371357FF-24FA-4760-92C6-E1AB40D68E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA19DD9A-E3CF-4B02-B9C4-EA1B48EAD317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DB9F66B2-D44E-45DB-8D2A-43A5EE4532B4}"/>
+    <workbookView xWindow="1236" yWindow="0" windowWidth="21804" windowHeight="11880" xr2:uid="{DB9F66B2-D44E-45DB-8D2A-43A5EE4532B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,25 +36,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Program 1</t>
+    <t>Rozmiar danych</t>
   </si>
   <si>
-    <t>Program 2</t>
+    <t>Program 1 (s)</t>
+  </si>
+  <si>
+    <t>Program 2 (s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -78,13 +96,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -132,7 +188,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Porównanie wydajnośći algorytmów</a:t>
+              <a:t>Porównanie wydajności algorytmów</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -181,7 +237,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Program 1</c:v>
+                  <c:v>Program 1 (s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -295,13 +351,13 @@
                   <c:v>5.9470000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.603</c:v>
+                  <c:v>12.603</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.681000000000001</c:v>
+                  <c:v>20.681000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.861000000000001</c:v>
+                  <c:v>31.861000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -321,9 +377,6 @@
               <c:f>Arkusz1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Program 2</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -405,45 +458,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -870,7 +884,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -888,9 +902,6 @@
               <c:f>Arkusz1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Program 2</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -925,43 +936,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5000</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10000</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25000</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75000</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>87500</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100000</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,45 +983,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1022,7 +994,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1366,7 +1337,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Porównanie wydajnośći algorytmów</a:t>
+              <a:t>Porównanie wydajności algorytmów</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1415,7 +1386,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Program 1</c:v>
+                  <c:v>Program 1 (s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1445,102 +1416,107 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$A$2:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+            <c:strRef>
+              <c:f>Arkusz1!$A$1:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Rozmiar danych</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>25000</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>75000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>87500</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>120000</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Arkusz1!$B$2:$B$15</c:f>
+              <c:f>Arkusz1!$B$1:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2E-3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.18</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1.379</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>5.9470000000000001</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.603</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.681000000000001</c:v>
+                  <c:v>12.603</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.861000000000001</c:v>
+                  <c:v>20.681000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>31.861000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>44.521999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -1561,9 +1537,6 @@
               <c:f>Arkusz1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Program 2</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1592,55 +1565,57 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$A$2:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+            <c:strRef>
+              <c:f>Arkusz1!$A$1:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>Rozmiar danych</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>25000</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>50000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>75000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>87500</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>120000</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1648,48 +1623,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2135,7 +2068,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2153,9 +2086,6 @@
               <c:f>Arkusz1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Program 2</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2184,55 +2114,57 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Arkusz1!$C$2:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+            <c:strRef>
+              <c:f>Arkusz1!$C$1:$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>Program 2 (s)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>0,001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>0,001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500</c:v>
+                  <c:v>0,002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>0,002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2500</c:v>
+                  <c:v>0,003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5000</c:v>
+                  <c:v>0,007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10000</c:v>
+                  <c:v>0,006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25000</c:v>
+                  <c:v>0,004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50000</c:v>
+                  <c:v>0,003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75000</c:v>
+                  <c:v>0,004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>87500</c:v>
+                  <c:v>0,004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100000</c:v>
+                  <c:v>0,003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>120000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>0,004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0,004</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -2240,48 +2172,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.0000000000000001E-3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4962,6 +4852,22 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E329E53E-F6CC-4781-8FE4-03AAE08C5EFB}" name="Tabela1" displayName="Tabela1" ref="A1:C15" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:C15" xr:uid="{E329E53E-F6CC-4781-8FE4-03AAE08C5EFB}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CB8EC53D-D022-44F1-AD6F-AB40CECAE124}" name="Rozmiar danych" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{20CDEC42-AF57-442C-998D-FC3F32BCA7EF}" name="Program 1 (s)" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{13F3F407-CDD8-4100-BECE-794282F8109C}" name="Program 2 (s)" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
@@ -5279,224 +5185,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22089BD1-7D1E-47A0-A25B-4EDF9DCD3EB5}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="3" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1E-3</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="1">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>50</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1E-3</v>
       </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="1">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>100</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2E-3</v>
       </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="1">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>500</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>2E-3</v>
       </c>
-      <c r="C5">
-        <v>500</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="1">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>1000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>2500</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C7">
-        <v>2500</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>5000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C8">
-        <v>5000</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>10000</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0.18</v>
       </c>
-      <c r="C9">
-        <v>10000</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>25000</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>1.379</v>
       </c>
-      <c r="C10">
-        <v>25000</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>50000</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>5.9470000000000001</v>
       </c>
-      <c r="C11">
-        <v>50000</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>75000</v>
       </c>
-      <c r="B12">
-        <v>13.603</v>
+      <c r="B12" s="1">
+        <v>12.603</v>
       </c>
-      <c r="C12">
-        <v>75000</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>87500</v>
       </c>
-      <c r="B13">
-        <v>23.681000000000001</v>
+      <c r="B13" s="1">
+        <v>20.681000000000001</v>
       </c>
-      <c r="C13">
-        <v>87500</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>100000</v>
       </c>
-      <c r="B14">
-        <v>30.861000000000001</v>
+      <c r="B14" s="1">
+        <v>31.861000000000001</v>
       </c>
-      <c r="C14">
-        <v>100000</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>120000</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>44.521999999999998</v>
       </c>
-      <c r="C15">
-        <v>120000</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>